--- a/Analyse/Faseplan.xlsx
+++ b/Analyse/Faseplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>Forberedelse</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Lav brugertests</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Færdig</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="C2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,15 +452,21 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -466,6 +478,12 @@
       <c r="E3" s="1">
         <v>42492</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42492</v>
+      </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -477,6 +495,12 @@
       <c r="E4" s="1">
         <v>42492</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42492</v>
+      </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -488,6 +512,12 @@
       <c r="E5" s="1">
         <v>42492</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>42493</v>
+      </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -499,6 +529,12 @@
       <c r="E6" s="1">
         <v>42493</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>42493</v>
+      </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
@@ -517,8 +553,12 @@
       <c r="E9" s="1">
         <v>42492</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>42492</v>
+      </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -530,8 +570,12 @@
       <c r="E10" s="1">
         <v>42493</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>42494</v>
+      </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -543,8 +587,12 @@
       <c r="E11" s="1">
         <v>42494</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>42494</v>
+      </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -556,8 +604,12 @@
       <c r="E12" s="1">
         <v>42496</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>42499</v>
+      </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -582,8 +634,12 @@
       <c r="E14" s="1">
         <v>42499</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42499</v>
+      </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -595,6 +651,12 @@
       <c r="E15" s="1">
         <v>42499</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>42499</v>
+      </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G16" s="3"/>
@@ -617,8 +679,12 @@
       <c r="E18" s="1">
         <v>42493</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>42493</v>
+      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -630,8 +696,12 @@
       <c r="E19" s="1">
         <v>42500</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>42500</v>
+      </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -643,8 +713,12 @@
       <c r="E20" s="1">
         <v>42500</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>42500</v>
+      </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
@@ -656,8 +730,12 @@
       <c r="E21" s="1">
         <v>42500</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>42500</v>
+      </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G22" s="3"/>
@@ -680,8 +758,12 @@
       <c r="E24" s="1">
         <v>42501</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42520</v>
+      </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -693,8 +775,12 @@
       <c r="E25" s="1">
         <v>42501</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>42520</v>
+      </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
@@ -706,8 +792,12 @@
       <c r="E26" s="1">
         <v>42501</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>42520</v>
+      </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
